--- a/output/Resolute_Bay/k_6/clusters_data.xlsx
+++ b/output/Resolute_Bay/k_6/clusters_data.xlsx
@@ -20,103 +20,103 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>115</t>
   </si>
 </sst>
 </file>
@@ -478,37 +478,43 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -516,19 +522,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -536,19 +545,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -556,33 +580,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -619,19 +619,22 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -639,10 +642,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -650,7 +650,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -658,15 +661,12 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/Resolute_Bay/k_6/clusters_data.xlsx
+++ b/output/Resolute_Bay/k_6/clusters_data.xlsx
@@ -20,103 +20,103 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>86</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>112</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>40</t>
   </si>
 </sst>
 </file>
@@ -457,18 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,90 +510,90 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -604,23 +604,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -628,45 +628,69 @@
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
